--- a/Team16Solution/Team16Solution/Data/Workshop-attending.xlsx
+++ b/Team16Solution/Team16Solution/Data/Workshop-attending.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -42,6 +42,75 @@
   </si>
   <si>
     <t>Workshop title</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Mollie</t>
+  </si>
+  <si>
+    <t>Fussell</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Greenfield</t>
+  </si>
+  <si>
+    <t>Juliann</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Wacinque</t>
+  </si>
+  <si>
+    <t>Bemende</t>
   </si>
 </sst>
 </file>
@@ -105,9 +174,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -451,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -487,6 +557,210 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43030</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Team16Solution/Team16Solution/Data/Workshop-attending.xlsx
+++ b/Team16Solution/Team16Solution/Data/Workshop-attending.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>First Name</t>
   </si>
@@ -42,75 +42,6 @@
   </si>
   <si>
     <t>Workshop title</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Mollie</t>
-  </si>
-  <si>
-    <t>Fussell</t>
-  </si>
-  <si>
-    <t>Edith</t>
-  </si>
-  <si>
-    <t>Jerome</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Greenfield</t>
-  </si>
-  <si>
-    <t>Juliann</t>
-  </si>
-  <si>
-    <t>Trump</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Dona</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Wacinque</t>
-  </si>
-  <si>
-    <t>Bemende</t>
   </si>
 </sst>
 </file>
@@ -174,10 +105,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -521,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E40" sqref="A2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15.75"/>
@@ -558,208 +490,100 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
